--- a/biology/Botanique/Sageretia/Sageretia.xlsx
+++ b/biology/Botanique/Sageretia/Sageretia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sageretia est un genre de plantes à fleurs appartenant à la famille des Rhamnaceae et composé de 35 espèces d'arbustes ou de petits arbres natifs du sud-est asiatique et du nord-est de l'Afrique. Ils ont de petites feuilles vertes de 1,5 à 4 cm de long et un tronc exfolié gris et marron. Les fleurs sont petites et insignifiantes ; le fruit est une petite drupe comestible de 1 cm de diamètre.
 Le genre tient son nom du botaniste français Auguste Sageret.
@@ -512,7 +524,9 @@
           <t>Les espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sageretia brandrethiana
 Sageretia camellifolia
@@ -561,7 +575,9 @@
           <t>Culture et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont parfois utilisées comme substitut du thé en Chine. S. theezans, originaire du sud de la Chine, est une espèce populaire en bonsai. S. paucicostata, du nord de la Chine, est l'espèce ayant la meilleure tolérance au froid et est parfois cultivé dans les jardins européens ou Nord américains.
 </t>
